--- a/bots/crawl_ch/output/toilet_coop_2022-08-02.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-02.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:24</t>
+          <t>2022-08-02 20:56:57</t>
         </is>
       </c>
     </row>
